--- a/FDA_0830_Weekly_Report/3_Keywords_Word_Frequency_0830.xlsx
+++ b/FDA_0830_Weekly_Report/3_Keywords_Word_Frequency_0830.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="172">
   <si>
     <t xml:space="preserve">MENTOR </t>
   </si>
@@ -383,13 +383,184 @@
   </si>
   <si>
     <t xml:space="preserve">B CELL LYMPHOMA </t>
+  </si>
+  <si>
+    <t>BIOMANUFACTURING INC.</t>
+  </si>
+  <si>
+    <t>BOSTON SCIENTIFIC WAYNE</t>
+  </si>
+  <si>
+    <t>BRENNAN MEDICAL, INC.</t>
+  </si>
+  <si>
+    <t>C.R. BARD</t>
+  </si>
+  <si>
+    <t>CAMP INT., INC.</t>
+  </si>
+  <si>
+    <t>CIRCON CORP.</t>
+  </si>
+  <si>
+    <t>CORPORATE CENTER</t>
+  </si>
+  <si>
+    <t>COSTA RICA</t>
+  </si>
+  <si>
+    <t>DEPUY DOW</t>
+  </si>
+  <si>
+    <t>DYNCORP</t>
+  </si>
+  <si>
+    <t>ECRI</t>
+  </si>
+  <si>
+    <t>ETHICON, INC.</t>
+  </si>
+  <si>
+    <t>HOWMEDICA, INC.</t>
+  </si>
+  <si>
+    <t>INFRASONICS</t>
+  </si>
+  <si>
+    <t>KAISER</t>
+  </si>
+  <si>
+    <t>KARL STORZ ENDOSCOPY AMERICA, INC.</t>
+  </si>
+  <si>
+    <t>KLEIN</t>
+  </si>
+  <si>
+    <t>LIFECELL CORPORATION</t>
+  </si>
+  <si>
+    <t>LIPOMATRIX  INC.</t>
+  </si>
+  <si>
+    <t>LIPOMATRIX, INC.</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MEDICOR 1MT</t>
+  </si>
+  <si>
+    <t>MEDLINE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>MEDTRONIC XOMED INSTRUMENTATION S.A.S.</t>
+  </si>
+  <si>
+    <t>MIM</t>
+  </si>
+  <si>
+    <t>NATIONAL PATIENT CARE SYSTEM</t>
+  </si>
+  <si>
+    <t>OILY IMPLANTS PROTHESES</t>
+  </si>
+  <si>
+    <t>OLYMPUS AMERICA</t>
+  </si>
+  <si>
+    <t>POLYURETHANE</t>
+  </si>
+  <si>
+    <t>POREX CORP</t>
+  </si>
+  <si>
+    <t>POREX MEDICAL DIV. POREX TECHNOLOGIES CORP.</t>
+  </si>
+  <si>
+    <t>POREX SURGICAL</t>
+  </si>
+  <si>
+    <t>POREX TECHNOLOGIES CORP. OF AMERICA</t>
+  </si>
+  <si>
+    <t>POSSIBLY MCGHAN MEDICAL</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>ROGER KLEIN LTD</t>
+  </si>
+  <si>
+    <t>ROGER KLEIN LTD.</t>
+  </si>
+  <si>
+    <t>SALIVE</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SEBBIN</t>
+  </si>
+  <si>
+    <t>SEE # 5</t>
+  </si>
+  <si>
+    <t>SILASTIC</t>
+  </si>
+  <si>
+    <t>SILIMED CO</t>
+  </si>
+  <si>
+    <t>SILIMED/ SIENTRA, INC.</t>
+  </si>
+  <si>
+    <t>SPECTRUM DESIGNS</t>
+  </si>
+  <si>
+    <t>SPECTRUM DESIGNS MEDICAL</t>
+  </si>
+  <si>
+    <t>SPECTRUM DESIGNS, INC., DBA SPECTRUM DESIGNS MEDICAL</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>SQ MASTX</t>
+  </si>
+  <si>
+    <t>SURGI - TECH</t>
+  </si>
+  <si>
+    <t>SWANSON</t>
+  </si>
+  <si>
+    <t>TRANSFORM</t>
+  </si>
+  <si>
+    <t>UNAVAILABLE</t>
+  </si>
+  <si>
+    <t>UNDETERMINABLE, BUT SURGEON THINKS DOW CORNING.</t>
+  </si>
+  <si>
+    <t>ZIMMER, INC.</t>
+  </si>
+  <si>
+    <t>ZONA FRANCA METROPOLITANA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +577,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -486,8 +673,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -507,7 +704,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -786,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,21 +1017,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>3728</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>110</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>6968</v>
+        <v>3728</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -845,147 +1052,600 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <v>1760</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>1856</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>481</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>207</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>1442</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18">
-        <v>1581</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>67</v>
       </c>
-      <c r="B22">
+      <c r="B79">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:B56">
-    <sortCondition descending="1" ref="B1"/>
+  <sortState ref="A2:B80">
+    <sortCondition descending="1" ref="B2:B80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FDA_0830_Weekly_Report/3_Keywords_Word_Frequency_0830.xlsx
+++ b/FDA_0830_Weekly_Report/3_Keywords_Word_Frequency_0830.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2060" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="1620" yWindow="1980" windowWidth="13200" windowHeight="12640" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacuturer" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="169">
   <si>
     <t xml:space="preserve">MENTOR </t>
   </si>
@@ -127,21 +127,12 @@
     <t xml:space="preserve">FLUID </t>
   </si>
   <si>
-    <t xml:space="preserve">BREAST SWELLING </t>
-  </si>
-  <si>
     <t xml:space="preserve">BREAST CYST </t>
   </si>
   <si>
-    <t xml:space="preserve">BREAST CALCIFICATION </t>
-  </si>
-  <si>
     <t xml:space="preserve">CAPSULAR CONTRACTURE </t>
   </si>
   <si>
-    <t xml:space="preserve">LYMPH NODE ENLARGEMENT </t>
-  </si>
-  <si>
     <t xml:space="preserve">MASS </t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t xml:space="preserve">INFECTION </t>
   </si>
   <si>
-    <t xml:space="preserve">DEFLATED </t>
-  </si>
-  <si>
     <t xml:space="preserve">ABSCESS </t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t xml:space="preserve">NODULES </t>
   </si>
   <si>
-    <t xml:space="preserve">SKIN DISCOLORATION </t>
-  </si>
-  <si>
     <t xml:space="preserve">SKIN LESION </t>
   </si>
   <si>
@@ -265,9 +250,6 @@
     <t xml:space="preserve">CONFIRM </t>
   </si>
   <si>
-    <t>更新一下该词</t>
-  </si>
-  <si>
     <t xml:space="preserve">BILATERAL </t>
   </si>
   <si>
@@ -286,21 +268,9 @@
     <t xml:space="preserve">LEAK </t>
   </si>
   <si>
-    <t xml:space="preserve">REDNESS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENDERNESS </t>
-  </si>
-  <si>
     <t xml:space="preserve">ERYTHEMA </t>
   </si>
   <si>
-    <t xml:space="preserve">ASYMMETRY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BREAST ENLARGEMENT </t>
-  </si>
-  <si>
     <t>FOI_TEXT</t>
   </si>
   <si>
@@ -379,12 +349,6 @@
     <t>RECONSTRUCTION Revision</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B CELL LYMPHOMA </t>
-  </si>
-  <si>
     <t>BIOMANUFACTURING INC.</t>
   </si>
   <si>
@@ -554,6 +518,33 @@
   </si>
   <si>
     <t>ZONA FRANCA METROPOLITANA</t>
+  </si>
+  <si>
+    <t>BREAST SWELL</t>
+  </si>
+  <si>
+    <t>BREAST CALCIF</t>
+  </si>
+  <si>
+    <t>SKIN DISCOLOR</t>
+  </si>
+  <si>
+    <t>DEFLAT</t>
+  </si>
+  <si>
+    <t>LYMPH NODE ENLARGE</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>TENDER</t>
+  </si>
+  <si>
+    <t>ASYMMETR</t>
+  </si>
+  <si>
+    <t>BREAST ENLARGE</t>
   </si>
 </sst>
 </file>
@@ -598,18 +589,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -686,9 +671,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -703,6 +687,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -995,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1025,13 +1011,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>3728</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>110</v>
+      <c r="C3" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1052,7 +1038,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1856</v>
@@ -1060,7 +1046,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>1760</v>
@@ -1068,7 +1054,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>1581</v>
@@ -1076,7 +1062,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>1442</v>
@@ -1084,7 +1070,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>481</v>
@@ -1100,7 +1086,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>128</v>
@@ -1108,7 +1094,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>57</v>
@@ -1124,7 +1110,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -1132,7 +1118,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>24</v>
@@ -1140,7 +1126,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -1148,7 +1134,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -1164,16 +1150,16 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>12</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -1181,7 +1167,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1189,7 +1175,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1205,7 +1191,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1213,7 +1199,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1221,7 +1207,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1229,7 +1215,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1237,7 +1223,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1245,7 +1231,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1253,7 +1239,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1261,7 +1247,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1269,7 +1255,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1277,7 +1263,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1285,7 +1271,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1293,7 +1279,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1301,7 +1287,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1309,7 +1295,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1317,7 +1303,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1325,7 +1311,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1333,7 +1319,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1341,7 +1327,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1349,7 +1335,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1357,7 +1343,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1365,7 +1351,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1373,7 +1359,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1381,7 +1367,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1389,7 +1375,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1397,7 +1383,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1405,7 +1391,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1413,7 +1399,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1421,7 +1407,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1429,7 +1415,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1437,7 +1423,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1445,7 +1431,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1453,7 +1439,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1461,7 +1447,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1469,7 +1455,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1477,7 +1463,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1485,7 +1471,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1493,7 +1479,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1501,7 +1487,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1509,7 +1495,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1517,7 +1503,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1525,7 +1511,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1533,7 +1519,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1541,7 +1527,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1549,7 +1535,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1557,7 +1543,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1565,7 +1551,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1573,7 +1559,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1581,7 +1567,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1589,7 +1575,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1597,7 +1583,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1605,7 +1591,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1613,7 +1599,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1621,7 +1607,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1629,7 +1615,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1637,7 +1623,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1657,7 +1643,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1678,7 +1664,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>7272</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1686,7 +1672,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>10985</v>
+        <v>11394</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1694,7 +1680,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5062</v>
+        <v>11466</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1702,7 +1688,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1701,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1737,7 +1723,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1014</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1745,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>746</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1753,12 +1739,12 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1766,10 +1752,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1768,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1803,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1513</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1811,7 +1797,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>864</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1819,31 +1805,31 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>291</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>113</v>
+      <c r="A6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>113</v>
+      <c r="A7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1853,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1864,7 +1850,7 @@
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1872,34 +1858,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2">
-        <v>551</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1907,69 +1890,65 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,7 +1961,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2003,7 +1982,7 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>6667</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2011,28 +1990,31 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>6755</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4">
-        <v>6841</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>104</v>
+      <c r="A6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>3190</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2027,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A10" sqref="A10:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2063,7 +2045,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -2071,7 +2053,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>71</v>
@@ -2079,90 +2061,90 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>411</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>113</v>
+      <c r="A10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="7">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>113</v>
+      <c r="A11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>113</v>
+      <c r="A12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>113</v>
+      <c r="A13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="7">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>113</v>
+      <c r="A14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2174,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2196,44 +2178,44 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>713</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>3104</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2241,87 +2223,87 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B9">
-        <v>177</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>195</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>171</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>1788</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="B13">
-        <v>620</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14">
-        <v>545</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -2329,26 +2311,26 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>528</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
         <v>45</v>
-      </c>
-      <c r="B21">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2356,63 +2338,63 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>584</v>
+        <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B23">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B24">
-        <v>267</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B26">
-        <v>142</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="B28">
-        <v>163</v>
+        <v>716</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2439,102 +2421,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>97</v>
+      <c r="A1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>88</v>
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
+      <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
+      <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>87</v>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
